--- a/Document/AboutCakePHP.xlsx
+++ b/Document/AboutCakePHP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>注文システムにおける店側のアプリケーションをCakePHPで作成する件</t>
     <rPh sb="0" eb="2">
@@ -110,6 +110,61 @@
     </rPh>
     <rPh sb="39" eb="40">
       <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除は元データは削除しない。
+削除は店長とかだけ。</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idと商品番号を別にする。
+関連付けておく。</t>
+    <rPh sb="3" eb="5">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>カンレンヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本語化する。</t>
+    <rPh sb="0" eb="4">
+      <t>ニホンゴカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いらない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無理。データベースxmlでやりとり。</t>
+    <rPh sb="0" eb="2">
+      <t>ムリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -523,6 +578,9 @@
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -541,9 +599,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -562,37 +617,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -944,37 +999,37 @@
   <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:I3"/>
+      <selection activeCell="E19" sqref="E19:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
@@ -997,33 +1052,35 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="21" t="s">
+        <v>8</v>
+      </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="25"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -1032,33 +1089,35 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="21"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="25"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="26"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1068,32 +1127,34 @@
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
+      <c r="E10" s="30" t="s">
+        <v>10</v>
+      </c>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="31"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="21"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="25"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -1103,32 +1164,34 @@
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
+      <c r="E13" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="21"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="25"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="26"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -1138,32 +1201,34 @@
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
+      <c r="E16" s="30" t="s">
+        <v>12</v>
+      </c>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="31"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="21"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="25"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="26"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -1178,25 +1243,25 @@
       <c r="I19" s="31"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="21"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="24"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="25"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
       <c r="I21" s="26"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1211,25 +1276,25 @@
       <c r="I22" s="31"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="21"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="25"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
       <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -1244,25 +1309,25 @@
       <c r="I25" s="31"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="21"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="24"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="24"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="25"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
       <c r="I27" s="26"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -1277,25 +1342,25 @@
       <c r="I28" s="31"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="21"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="24"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="25"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
       <c r="I30" s="26"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -1310,25 +1375,25 @@
       <c r="I31" s="31"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="21"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="25"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
       <c r="I33" s="26"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -1343,25 +1408,25 @@
       <c r="I34" s="31"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="21"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="22"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="24"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="25"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
       <c r="I36" s="26"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -1376,25 +1441,25 @@
       <c r="I37" s="31"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="21"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="24"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="22"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="24"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="25"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
       <c r="I39" s="26"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -1409,25 +1474,25 @@
       <c r="I40" s="31"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="17"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="21"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="24"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="22"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="24"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="25"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
       <c r="I42" s="26"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -1442,10 +1507,10 @@
       <c r="I43" s="33"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="19"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
@@ -1453,10 +1518,10 @@
       <c r="I44" s="33"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="22"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="24"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
@@ -2290,25 +2355,158 @@
     </row>
   </sheetData>
   <mergeCells count="183">
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="A4:D6"/>
-    <mergeCell ref="E4:I6"/>
-    <mergeCell ref="A7:D9"/>
-    <mergeCell ref="E7:I9"/>
-    <mergeCell ref="A10:D12"/>
-    <mergeCell ref="E10:I12"/>
-    <mergeCell ref="A13:D15"/>
-    <mergeCell ref="E13:I15"/>
-    <mergeCell ref="A16:D18"/>
-    <mergeCell ref="E16:I18"/>
-    <mergeCell ref="A19:D21"/>
-    <mergeCell ref="E19:I21"/>
-    <mergeCell ref="A22:D24"/>
-    <mergeCell ref="E22:I24"/>
-    <mergeCell ref="A25:D27"/>
-    <mergeCell ref="E25:I27"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="E119:I119"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="E120:I120"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="E116:I116"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="E117:I117"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="E118:I118"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="E113:I113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="E114:I114"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="E115:I115"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="E110:I110"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="E111:I111"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="E112:I112"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="E107:I107"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="E108:I108"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="E109:I109"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="E104:I104"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="E105:I105"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="E106:I106"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="E101:I101"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="E102:I102"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="E103:I103"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="E98:I98"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="E99:I99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="E100:I100"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="E95:I95"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="E96:I96"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="E97:I97"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="E92:I92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="E93:I93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="E94:I94"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="E89:I89"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="E90:I90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="E91:I91"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="E86:I86"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="E87:I87"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="E88:I88"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="E83:I83"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="E84:I84"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="E85:I85"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="E80:I80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="E81:I81"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="E82:I82"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="E77:I77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="E78:I78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="E79:I79"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="E74:I74"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="E75:I75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="E76:I76"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="E71:I71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="E72:I72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="E73:I73"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="E70:I70"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="E62:I62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="E60:I60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="E57:I57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="E58:I58"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="E46:I46"/>
     <mergeCell ref="A28:D30"/>
     <mergeCell ref="E28:I30"/>
     <mergeCell ref="A31:D33"/>
@@ -2321,158 +2519,25 @@
     <mergeCell ref="A40:D42"/>
     <mergeCell ref="E40:I42"/>
     <mergeCell ref="A43:D45"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="E59:I59"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="E60:I60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="E61:I61"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="E57:I57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="E58:I58"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="E66:I66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="E62:I62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="E63:I63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="E64:I64"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="E71:I71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="E72:I72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="E73:I73"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="E70:I70"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="E77:I77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="E78:I78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="E79:I79"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="E74:I74"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="E75:I75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="E76:I76"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="E83:I83"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="E84:I84"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="E85:I85"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="E80:I80"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="E81:I81"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="E82:I82"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="E89:I89"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="E90:I90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="E91:I91"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="E86:I86"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="E87:I87"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="E88:I88"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="E95:I95"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="E96:I96"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="E97:I97"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="E92:I92"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="E93:I93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="E94:I94"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="E101:I101"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="E102:I102"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="E103:I103"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="E98:I98"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="E99:I99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="E100:I100"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="E107:I107"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="E108:I108"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="E109:I109"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="E104:I104"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="E105:I105"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="E106:I106"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="E113:I113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="E114:I114"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="E115:I115"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="E110:I110"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="E111:I111"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="E112:I112"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="E119:I119"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="E120:I120"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="E116:I116"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="E117:I117"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="E118:I118"/>
+    <mergeCell ref="A13:D15"/>
+    <mergeCell ref="E13:I15"/>
+    <mergeCell ref="A16:D18"/>
+    <mergeCell ref="E16:I18"/>
+    <mergeCell ref="A19:D21"/>
+    <mergeCell ref="E19:I21"/>
+    <mergeCell ref="A22:D24"/>
+    <mergeCell ref="E22:I24"/>
+    <mergeCell ref="A25:D27"/>
+    <mergeCell ref="E25:I27"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="A4:D6"/>
+    <mergeCell ref="E4:I6"/>
+    <mergeCell ref="A7:D9"/>
+    <mergeCell ref="E7:I9"/>
+    <mergeCell ref="A10:D12"/>
+    <mergeCell ref="E10:I12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
